--- a/data/epa_xls/lmopdatari.xlsx
+++ b/data/epa_xls/lmopdatari.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr backupFile="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\LMOP\LFDatabase\Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9012660-F765-47B2-A78F-46C4AF15A66E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED06C86-202B-4476-BB1E-65B81DA8966A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <author>Jeanette Alvis</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{72E877D4-B93D-40DB-B368-3BE33A4177B7}">
       <text>
         <r>
           <rPr>
@@ -50,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{413FEE52-8EA8-4288-B28F-0BF8E335209C}">
       <text>
         <r>
           <rPr>
@@ -64,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{EA73CDB2-B839-4237-9EC4-972B9D433E81}">
       <text>
         <r>
           <rPr>
@@ -78,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{737B2B3F-D8C7-49B4-9C0B-C9E6661EF9EB}">
       <text>
         <r>
           <rPr>
@@ -92,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{6BB5E05B-926C-47AB-B84F-2450781AA738}">
       <text>
         <r>
           <rPr>
@@ -106,7 +106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{C50F4041-6775-4EEA-971F-1A9C114D9937}">
       <text>
         <r>
           <rPr>
@@ -120,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{E85080B6-090C-406E-A69A-8943C2387F8E}">
       <text>
         <r>
           <rPr>
@@ -134,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{C52CDEA7-B4A7-4DBF-A5A4-7882694029A6}">
       <text>
         <r>
           <rPr>
@@ -148,7 +148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{4315D1D8-E628-4DB8-9479-70025C0590BD}">
       <text>
         <r>
           <rPr>
@@ -161,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{E07AD364-0E0A-413B-A089-BB148E8C566B}">
       <text>
         <r>
           <rPr>
@@ -174,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{2622B056-E914-48F4-80FE-EE036C26EC90}">
       <text>
         <r>
           <rPr>
@@ -188,7 +188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{6C703382-F908-480D-99D8-02D0ECD8D8BD}">
       <text>
         <r>
           <rPr>
@@ -202,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{C6B85004-D5EF-4378-A052-F395DB451F26}">
       <text>
         <r>
           <rPr>
@@ -216,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{9C898D94-5874-4A59-A094-7271B05FDEC5}">
       <text>
         <r>
           <rPr>
@@ -230,7 +230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000F000000}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{1E53798F-E91E-4F9F-A0FC-11D83EC4F50B}">
       <text>
         <r>
           <rPr>
@@ -244,7 +244,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000010000000}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{7E5E6598-36D6-417B-BE7E-CA212EB0B5E2}">
       <text>
         <r>
           <rPr>
@@ -258,7 +258,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000011000000}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{DBDD9BF1-A2A7-4C40-A4C0-2A310968BD02}">
       <text>
         <r>
           <rPr>
@@ -272,7 +272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000012000000}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{1FA307D5-7434-4DDD-A5F6-AC393BEF8E3F}">
       <text>
         <r>
           <rPr>
@@ -286,7 +286,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000013000000}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{2411426C-CD4C-48C6-991F-6826C4FBD835}">
       <text>
         <r>
           <rPr>
@@ -300,7 +300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000014000000}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{7A6BE22B-5BD6-4DCA-8B14-B7CB9452FCAD}">
       <text>
         <r>
           <rPr>
@@ -314,7 +314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000015000000}">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{272FB59E-9B54-4933-A361-7A9AA4EBC54A}">
       <text>
         <r>
           <rPr>
@@ -328,7 +328,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{DE5A1749-4F23-4174-879D-E9673B6B3590}">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{EE7189FC-E86D-4936-943D-925E4DBA0B05}">
       <text>
         <r>
           <rPr>
@@ -342,7 +342,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000017000000}">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{45025DEF-D263-4CD1-A5D0-AFF32C82F00F}">
       <text>
         <r>
           <rPr>
@@ -356,7 +356,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{428EADDE-D395-4F71-8807-160B22CAAFC5}">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{D96425D9-BE92-4934-B0B4-CCA9DF2ACE79}">
       <text>
         <r>
           <rPr>
@@ -370,7 +370,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{F86BD08E-0A42-4C0B-A7EB-F7E0D20DC5FF}">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{6DAA43F1-7F24-48CB-BBDB-DF0CA7EAE2ED}">
       <text>
         <r>
           <rPr>
@@ -384,7 +384,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{204BA802-93FB-490A-BE09-38A7AA7DF630}">
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{7F68F05B-1268-4416-8A4A-8E95D0A90947}">
       <text>
         <r>
           <rPr>
@@ -397,7 +397,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001A000000}">
+    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{B442A0A3-7D5A-4AA2-8BBF-A4B8BA28CD75}">
       <text>
         <r>
           <rPr>
@@ -411,7 +411,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="1" shapeId="0" xr:uid="{239418FE-F731-414A-98AD-86C8FA6753AF}">
+    <comment ref="AB1" authorId="1" shapeId="0" xr:uid="{6F5F4A99-BD97-4974-A03D-29CF16244E79}">
       <text>
         <r>
           <rPr>
@@ -425,7 +425,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001C000000}">
+    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{04FF1CA6-02B5-4357-8A8B-49AE2E32BB00}">
       <text>
         <r>
           <rPr>
@@ -434,12 +434,26 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Capacity in megawatts for electricity-generating projects
+          <t xml:space="preserve">Actual or estimated electric generation in megawatts for electricity-generating projects
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001D000000}">
+    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{823EAD58-4CBB-4393-B547-06B7CB9D9CCA}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Rated capacity in megawatts for electricity-generating projects
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{F89783F7-4F79-4D1E-B452-21690998A727}">
       <text>
         <r>
           <rPr>
@@ -453,7 +467,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001E000000}">
+    <comment ref="AF1" authorId="0" shapeId="0" xr:uid="{DDB27DEB-E46F-4724-B73C-D12B3082DF81}">
       <text>
         <r>
           <rPr>
@@ -467,7 +481,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001F000000}">
+    <comment ref="AG1" authorId="0" shapeId="0" xr:uid="{E62AC99A-63D0-4125-84F8-83699EA35784}">
       <text>
         <r>
           <rPr>
@@ -486,7 +500,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="131">
   <si>
     <t>GHGRP ID</t>
   </si>
@@ -567,9 +581,6 @@
   </si>
   <si>
     <t>Project Type Category</t>
-  </si>
-  <si>
-    <t>MW Capacity</t>
   </si>
   <si>
     <t>LFG Flow to Project (mmscfd)</t>
@@ -714,9 +725,6 @@
     <t>Specific type of LFG energy project technology</t>
   </si>
   <si>
-    <t>Capacity in megawatts for electricity-generating projects</t>
-  </si>
-  <si>
     <t>Amount of landfill gas flowing to project or that will flow to the project when it becomes operational in million standard cubic feet per day</t>
   </si>
   <si>
@@ -1001,6 +1009,18 @@
   </si>
   <si>
     <t>180349-0</t>
+  </si>
+  <si>
+    <t>Actual MW Generation</t>
+  </si>
+  <si>
+    <t>Rated MW Capacity</t>
+  </si>
+  <si>
+    <t>Actual or estimated electric generation in megawatts for electricity-generating projects</t>
+  </si>
+  <si>
+    <t>Rated capacity in megawatts for electricity-generating projects</t>
   </si>
 </sst>
 </file>
@@ -1424,6 +1444,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1469,19 +1502,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1864,10 +1884,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>42</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>43</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
@@ -1889,36 +1909,36 @@
       <c r="D3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
+      <c r="A4" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="59"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
+      <c r="A8" s="59"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
     </row>
     <row r="9" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A9"/>
@@ -1933,70 +1953,70 @@
       <c r="D10"/>
     </row>
     <row r="11" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
+      <c r="A11" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="63"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="59" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="61"/>
+      <c r="A12" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="66"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="52"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="49"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="54"/>
     </row>
     <row r="14" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="27"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="49"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="54"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="49"/>
+      <c r="A15" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="53"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="54"/>
     </row>
     <row r="16" spans="1:4" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A16" s="52"/>
-      <c r="B16" s="48"/>
+      <c r="A16" s="57"/>
+      <c r="B16" s="53"/>
       <c r="C16" s="28"/>
       <c r="D16" s="29"/>
     </row>
     <row r="17" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
       <c r="B17" s="27"/>
-      <c r="C17" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" s="49"/>
+      <c r="C17" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="54"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="49"/>
+      <c r="A18" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="53"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="54"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="52"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="49"/>
+      <c r="A19" s="57"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="54"/>
     </row>
     <row r="20" spans="1:4" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A20" s="30"/>
@@ -2005,20 +2025,20 @@
       <c r="D20" s="33"/>
     </row>
     <row r="21" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="49"/>
+      <c r="A21" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="54"/>
     </row>
     <row r="22" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="52"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="49"/>
+      <c r="A22" s="57"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="54"/>
     </row>
     <row r="23" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A23" s="34"/>
@@ -2029,16 +2049,16 @@
     <row r="24" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
       <c r="B24" s="27"/>
-      <c r="C24" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" s="49"/>
+      <c r="C24" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="54"/>
     </row>
     <row r="25" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
       <c r="B25" s="38"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="51"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2060,14 +2080,14 @@
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Arial,Bold"&amp;12Summary for 
 Current LMOP Landfill and LFG Energy Project Database - Rhode Island</oddHeader>
-    <oddFooter>&amp;L&amp;"Arial,Regular"&amp;8&amp;F&amp;R&amp;"Arial,Regular"&amp;8 2/19/19</oddFooter>
+    <oddFooter>&amp;L&amp;"Arial,Regular"&amp;8&amp;F&amp;R&amp;"Arial,Regular"&amp;8 12/18/19</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AF9"/>
+  <dimension ref="A1:AG9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
@@ -2102,13 +2122,13 @@
     <col min="25" max="25" width="9.6640625" style="17" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9.44140625" customWidth="1"/>
     <col min="27" max="27" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.5546875" style="47" customWidth="1"/>
-    <col min="29" max="29" width="3.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="14.33203125" style="67" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.77734375" style="47" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="14.33203125" style="52" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="3" customFormat="1" ht="84.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" s="3" customFormat="1" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -2191,43 +2211,46 @@
         <v>25</v>
       </c>
       <c r="AB1" s="21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AC1" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD1" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="20" t="s">
+      <c r="AF1" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="63" t="s">
+      <c r="AG1" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="63" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5">
         <v>2262</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="I2" s="5">
         <v>41.677999999999997</v>
@@ -2236,7 +2259,7 @@
         <v>-71.251999999999995</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="5">
@@ -2246,62 +2269,63 @@
         <v>2002</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P2" s="6">
         <v>400000</v>
       </c>
       <c r="Q2" s="5"/>
       <c r="R2" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
       <c r="U2" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W2" s="5"/>
       <c r="X2" s="7"/>
       <c r="Y2" s="7"/>
       <c r="Z2" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB2" s="5"/>
       <c r="AC2" s="5"/>
       <c r="AD2" s="5"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="64"/>
-    </row>
-    <row r="3" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="49"/>
+      <c r="AG2" s="49"/>
+    </row>
+    <row r="3" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B3" s="10">
         <v>1845</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>94</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>96</v>
       </c>
       <c r="I3" s="10">
         <v>41.804679999999998</v>
@@ -2310,10 +2334,10 @@
         <v>-71.502160000000003</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M3" s="10">
         <v>1955</v>
@@ -2322,29 +2346,29 @@
         <v>2038</v>
       </c>
       <c r="O3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="11">
+        <v>38031825</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>2018</v>
+      </c>
+      <c r="R3" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="P3" s="11">
-        <v>37092319</v>
-      </c>
-      <c r="Q3" s="10">
-        <v>2017</v>
-      </c>
-      <c r="R3" s="10" t="s">
-        <v>33</v>
       </c>
       <c r="S3" s="10">
         <v>15.6</v>
       </c>
       <c r="T3" s="10"/>
       <c r="U3" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="V3" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="W3" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="X3" s="12">
         <v>32874</v>
@@ -2353,43 +2377,50 @@
         <v>41275</v>
       </c>
       <c r="Z3" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA3" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB3" s="10"/>
       <c r="AC3" s="10">
         <v>12</v>
       </c>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-    </row>
-    <row r="4" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AD3" s="10">
+        <v>15.3</v>
+      </c>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="50">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" s="10">
         <v>1845</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="G4" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>94</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>96</v>
       </c>
       <c r="I4" s="10">
         <v>41.804679999999998</v>
@@ -2398,10 +2429,10 @@
         <v>-71.502160000000003</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M4" s="10">
         <v>1955</v>
@@ -2410,29 +2441,29 @@
         <v>2038</v>
       </c>
       <c r="O4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" s="11">
+        <v>38031825</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>2018</v>
+      </c>
+      <c r="R4" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="P4" s="11">
-        <v>37092319</v>
-      </c>
-      <c r="Q4" s="10">
-        <v>2017</v>
-      </c>
-      <c r="R4" s="10" t="s">
-        <v>33</v>
       </c>
       <c r="S4" s="10">
         <v>15.6</v>
       </c>
       <c r="T4" s="10"/>
       <c r="U4" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="V4" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="W4" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="X4" s="12">
         <v>37987</v>
@@ -2441,43 +2472,50 @@
         <v>41275</v>
       </c>
       <c r="Z4" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA4" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB4" s="10"/>
       <c r="AC4" s="10">
         <v>2.4</v>
       </c>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-    </row>
-    <row r="5" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AD4" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="50">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B5" s="10">
         <v>1845</v>
       </c>
       <c r="C5" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="F5" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="G5" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>94</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>96</v>
       </c>
       <c r="I5" s="10">
         <v>41.804679999999998</v>
@@ -2486,10 +2524,10 @@
         <v>-71.502160000000003</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M5" s="10">
         <v>1955</v>
@@ -2498,76 +2536,77 @@
         <v>2038</v>
       </c>
       <c r="O5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" s="11">
+        <v>38031825</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>2018</v>
+      </c>
+      <c r="R5" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="P5" s="11">
-        <v>37092319</v>
-      </c>
-      <c r="Q5" s="10">
-        <v>2017</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>33</v>
       </c>
       <c r="S5" s="10">
         <v>15.6</v>
       </c>
       <c r="T5" s="10"/>
       <c r="U5" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="V5" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W5" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="X5" s="12">
         <v>38687</v>
       </c>
       <c r="Y5" s="12"/>
       <c r="Z5" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA5" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB5" s="10"/>
       <c r="AC5" s="10">
         <v>6</v>
       </c>
       <c r="AD5" s="10"/>
-      <c r="AE5" s="65">
-        <v>0.27179999999999999</v>
-      </c>
-      <c r="AF5" s="65">
-        <v>0.31690000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="50">
+        <v>0.27107999999999999</v>
+      </c>
+      <c r="AG5" s="50">
+        <v>3.1649999999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B6" s="10">
         <v>1845</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="F6" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="G6" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="H6" s="9" t="s">
         <v>94</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>96</v>
       </c>
       <c r="I6" s="10">
         <v>41.804679999999998</v>
@@ -2576,10 +2615,10 @@
         <v>-71.502160000000003</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M6" s="10">
         <v>1955</v>
@@ -2588,74 +2627,75 @@
         <v>2038</v>
       </c>
       <c r="O6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="11">
+        <v>38031825</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>2018</v>
+      </c>
+      <c r="R6" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="P6" s="11">
-        <v>37092319</v>
-      </c>
-      <c r="Q6" s="10">
-        <v>2017</v>
-      </c>
-      <c r="R6" s="10" t="s">
-        <v>33</v>
       </c>
       <c r="S6" s="10">
         <v>15.6</v>
       </c>
       <c r="T6" s="10"/>
       <c r="U6" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="V6" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W6" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="X6" s="12">
         <v>41364</v>
       </c>
       <c r="Y6" s="12"/>
       <c r="Z6" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA6" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AB6" s="10"/>
       <c r="AC6" s="10">
         <v>32.799999999999997</v>
       </c>
       <c r="AD6" s="10"/>
-      <c r="AE6" s="65">
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="50">
         <v>1.4819</v>
       </c>
-      <c r="AF6" s="65">
-        <v>0.17326</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AG6" s="50">
+        <v>0.17304</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="10">
         <v>1846</v>
       </c>
       <c r="C7" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" s="10" t="s">
+      <c r="G7" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>104</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>106</v>
       </c>
       <c r="I7" s="10">
         <v>41.735700000000001</v>
@@ -2664,10 +2704,10 @@
         <v>-71.461699999999993</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M7" s="10">
         <v>1943</v>
@@ -2676,70 +2716,71 @@
         <v>1985</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P7" s="11">
         <v>1000000</v>
       </c>
       <c r="Q7" s="10"/>
       <c r="R7" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S7" s="10"/>
       <c r="T7" s="10"/>
       <c r="U7" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="V7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="W7" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="W7" s="10" t="s">
-        <v>35</v>
       </c>
       <c r="X7" s="12">
         <v>35065</v>
       </c>
       <c r="Y7" s="12"/>
       <c r="Z7" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA7" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB7" s="10"/>
       <c r="AC7" s="10">
         <v>0.5</v>
       </c>
       <c r="AD7" s="10"/>
-      <c r="AE7" s="65">
-        <v>0.22589999999999999</v>
-      </c>
-      <c r="AF7" s="65">
-        <v>0.26400000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="50">
+        <v>2.2589999999999999E-2</v>
+      </c>
+      <c r="AG7" s="50">
+        <v>2.64E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="10">
         <v>2261</v>
       </c>
       <c r="C8" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" s="10" t="s">
+      <c r="G8" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>124</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>126</v>
       </c>
       <c r="I8" s="10">
         <v>41.584000000000003</v>
@@ -2748,68 +2789,71 @@
         <v>-71.183000000000007</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M8" s="10">
         <v>1977</v>
       </c>
-      <c r="N8" s="10"/>
+      <c r="N8" s="10">
+        <v>2020</v>
+      </c>
       <c r="O8" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P8" s="11"/>
       <c r="Q8" s="10"/>
       <c r="R8" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
       <c r="U8" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="V8" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W8" s="10"/>
       <c r="X8" s="12"/>
       <c r="Y8" s="12"/>
       <c r="Z8" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA8" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB8" s="10"/>
       <c r="AC8" s="10"/>
       <c r="AD8" s="10"/>
-      <c r="AE8" s="65"/>
-      <c r="AF8" s="65"/>
-    </row>
-    <row r="9" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="50"/>
+      <c r="AG8" s="50"/>
+    </row>
+    <row r="9" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="14">
         <v>2260</v>
       </c>
       <c r="C9" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E9" s="14" t="s">
+      <c r="H9" s="13" t="s">
         <v>118</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>120</v>
       </c>
       <c r="I9" s="14">
         <v>41.375999999999998</v>
@@ -2818,7 +2862,7 @@
         <v>-71.802499999999995</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L9" s="14"/>
       <c r="M9" s="14">
@@ -2828,38 +2872,39 @@
         <v>1992</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P9" s="15"/>
       <c r="Q9" s="14"/>
       <c r="R9" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
       <c r="U9" s="14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="V9" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W9" s="14"/>
       <c r="X9" s="16"/>
       <c r="Y9" s="16"/>
       <c r="Z9" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA9" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB9" s="14"/>
       <c r="AC9" s="14"/>
       <c r="AD9" s="14"/>
-      <c r="AE9" s="66"/>
-      <c r="AF9" s="66"/>
+      <c r="AE9" s="14"/>
+      <c r="AF9" s="51"/>
+      <c r="AG9" s="51"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AF9">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AG9">
     <sortCondition ref="C2:C9"/>
     <sortCondition ref="U2:U9"/>
   </sortState>
@@ -2868,7 +2913,7 @@
   <pageMargins left="0" right="0" top="0.8" bottom="0.9" header="0.4" footer="0.3"/>
   <pageSetup paperSize="5" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;"Arial,Bold"&amp;12Current LMOP Landfill and LFG Energy Project Database - Rhode Island&amp;R&amp;"Arial,Regular"&amp;8 2/19/19</oddHeader>
+    <oddHeader>&amp;C&amp;"Arial,Bold"&amp;12Current LMOP Landfill and LFG Energy Project Database - Rhode Island&amp;R&amp;"Arial,Regular"&amp;8 12/18/19</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,Regular"&amp;8&amp;P</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
@@ -2880,7 +2925,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2898,10 +2943,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>45</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -2909,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -2917,7 +2962,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -2925,7 +2970,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -2933,7 +2978,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -2941,7 +2986,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -2949,7 +2994,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -2957,7 +3002,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -2965,7 +3010,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -2973,7 +3018,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -2981,7 +3026,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -2989,7 +3034,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -2997,7 +3042,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3005,7 +3050,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3013,7 +3058,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3021,7 +3066,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3029,7 +3074,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3037,7 +3082,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="24" x14ac:dyDescent="0.25">
@@ -3045,7 +3090,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3053,7 +3098,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3061,7 +3106,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3069,7 +3114,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3077,7 +3122,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3085,7 +3130,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3093,7 +3138,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3101,7 +3146,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3109,7 +3154,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3117,47 +3162,55 @@
         <v>25</v>
       </c>
       <c r="B28" s="45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="12" x14ac:dyDescent="0.25">
       <c r="A29" s="45" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B29" s="45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="12" x14ac:dyDescent="0.25">
-      <c r="A30" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="45" t="s">
-        <v>70</v>
+      <c r="A30" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" s="44" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="12" x14ac:dyDescent="0.25">
-      <c r="A31" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="45" t="s">
-        <v>71</v>
+      <c r="A31" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="B31" s="44" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="12" x14ac:dyDescent="0.25">
       <c r="A32" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="12" x14ac:dyDescent="0.25">
+      <c r="A33" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="12" x14ac:dyDescent="0.25">
+      <c r="A34" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="45" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="12" x14ac:dyDescent="0.25">
-      <c r="A33" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="46" t="s">
-        <v>73</v>
+      <c r="B34" s="46" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
